--- a/results/I3_N5_M2_T30_C100_DepCentral_s0_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2831.872744642549</v>
+        <v>823.192885236222</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4170000553131104</v>
+        <v>0.4630000591278076</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.37220434643573</v>
+        <v>19.86873046594926</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.1729084582406</v>
+        <v>4.798343757406281</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.54344875434632</v>
+        <v>2.122498527679113</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2535.260000000007</v>
+        <v>805.9999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.8699999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,17 +590,6 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.89414115881186</v>
+        <v>26.43123270582124</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>22.94108823397055</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>25.31848176470962</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.837257427557379</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,10 +957,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -982,43 +971,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1077,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>177.8440000000015</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="4">
@@ -1088,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>275.6819999999983</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="5">
@@ -1099,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>156.0779999999977</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.263</v>
+        <v>146.2</v>
       </c>
     </row>
     <row r="7">
@@ -1121,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>63.73599999999978</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>177.8440000000019</v>
+        <v>146.2</v>
       </c>
     </row>
     <row r="9">
@@ -1143,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>275.6819999999989</v>
+        <v>134.4</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>77.84400000000187</v>
+        <v>46.19999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1201,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>175.6819999999989</v>
+        <v>34.4</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4.659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1292,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>23.928</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1344,7 +1305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1355,23 +1316,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
